--- a/doc/ue_lod_hlod.xlsx
+++ b/doc/ue_lod_hlod.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E167740C-DE60-489A-9BC7-03645EE9CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F706527-C660-4B4C-BF38-8C5130C3A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lod" sheetId="1" r:id="rId1"/>
+    <sheet name="detail mode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>void MarkRelevant()</t>
   </si>
@@ -264,6 +265,62 @@
   </si>
   <si>
     <t>FPrimitiveSceneInfo* PrimitiveSceneInfo = new FPrimitiveSceneInfo(Primitive, this);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Detail mode for scene component rendering, corresponds with the integer value of UWorld::GetDetailMode() */</t>
+  </si>
+  <si>
+    <t>UENUM()</t>
+  </si>
+  <si>
+    <t>enum EDetailMode</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>DM_Low UMETA(DisplayName="Low"),</t>
+  </si>
+  <si>
+    <t>DM_Medium UMETA(DisplayName="Medium"),</t>
+  </si>
+  <si>
+    <t>DM_High UMETA(DisplayName="High"),</t>
+  </si>
+  <si>
+    <t>DM_MAX,</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>// If the primitive isn't hidden and the detail mode setting allows it, add it to the scene.</t>
+  </si>
+  <si>
+    <t>if (ShouldComponentAddToScene())</t>
+  </si>
+  <si>
+    <t>if (Context != nullptr)</t>
+  </si>
+  <si>
+    <t>Context-&gt;AddPrimitive(this);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;Scene-&gt;AddPrimitive(this);</t>
+  </si>
+  <si>
+    <t>低端机器可以设置detail mode，这样子就不显示了，提高渲染效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是内存还是会占用，仅仅不渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,6 +422,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599444</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>113640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E08D49B-3439-3E4B-1CFB-E30D149D9563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="2981325"/>
+          <a:ext cx="5047619" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -973,4 +1079,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA2DBD1-6E1C-46BA-B21D-E4832FA6A73C}">
+  <dimension ref="C5:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_lod_hlod.xlsx
+++ b/doc/ue_lod_hlod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F706527-C660-4B4C-BF38-8C5130C3A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E7F65-06A3-430E-9044-A9E2DBE03CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>void MarkRelevant()</t>
   </si>
@@ -298,29 +298,43 @@
     <t>// If the primitive isn't hidden and the detail mode setting allows it, add it to the scene.</t>
   </si>
   <si>
+    <t>if (Context != nullptr)</t>
+  </si>
+  <si>
+    <t>Context-&gt;AddPrimitive(this);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;Scene-&gt;AddPrimitive(this);</t>
+  </si>
+  <si>
+    <t>低端机器可以设置detail mode，这样子就不显示了，提高渲染效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是内存还是会占用，仅仅不渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>if (ShouldComponentAddToScene())</t>
-  </si>
-  <si>
-    <t>if (Context != nullptr)</t>
-  </si>
-  <si>
-    <t>Context-&gt;AddPrimitive(this);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>GetWorld()-&gt;Scene-&gt;AddPrimitive(this);</t>
-  </si>
-  <si>
-    <t>低端机器可以设置detail mode，这样子就不显示了，提高渲染效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是内存还是会占用，仅仅不渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool USceneComponent::ShouldComponentAddToScene() const</t>
+  </si>
+  <si>
+    <t>// If the detail mode setting allows it, add it to the scene.</t>
+  </si>
+  <si>
+    <t>return DetailMode &lt;= GetCachedScalabilityCVars().DetailMode;</t>
+  </si>
+  <si>
+    <t>比设置的DetailMode小，才可以显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,6 +421,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -738,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1083,17 +1098,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA2DBD1-6E1C-46BA-B21D-E4832FA6A73C}">
-  <dimension ref="C5:J35"/>
+  <dimension ref="C5:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1105,7 +1120,7 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1177,7 +1192,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -1187,7 +1202,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -1197,17 +1212,17 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
@@ -1217,17 +1232,47 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_lod_hlod.xlsx
+++ b/doc/ue_lod_hlod.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E7F65-06A3-430E-9044-A9E2DBE03CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lod" sheetId="1" r:id="rId1"/>
     <sheet name="detail mode" sheetId="2" r:id="rId2"/>
+    <sheet name="hlod-proxymesh" sheetId="3" r:id="rId3"/>
+    <sheet name="HLODProxy" sheetId="4" r:id="rId4"/>
+    <sheet name="ALODActor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
   <si>
     <t>void MarkRelevant()</t>
   </si>
@@ -337,11 +339,136 @@
     <t>比设置的DetailMode小，才可以显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FHLODProxyMesh</t>
+  </si>
+  <si>
+    <t>/** A mesh proxy entry */</t>
+  </si>
+  <si>
+    <t>USTRUCT()</t>
+  </si>
+  <si>
+    <t>struct FHLODProxyMesh</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t>/** The ALODActor that we were generated from */</t>
+  </si>
+  <si>
+    <t>UPROPERTY()</t>
+  </si>
+  <si>
+    <t>TLazyObjectPtr&lt;ALODActor&gt; LODActor;</t>
+  </si>
+  <si>
+    <t>/** The mesh used to display this proxy */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(VisibleAnywhere, Category = "Proxy Mesh")</t>
+  </si>
+  <si>
+    <t>UStaticMesh* StaticMesh;</t>
+  </si>
+  <si>
+    <t>/** The key generated from an ALODActor. If this differs from that generated from the ALODActor, then the mesh needs regenerating. */</t>
+  </si>
+  <si>
+    <t>FName Key;</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** This asset acts as a proxy to a static mesh for ALODActors to display */</t>
+  </si>
+  <si>
+    <t>UCLASS()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class ENGINE_API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UHLODProxy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : public UObject</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * LODActor is an instance of an autogenerated StaticMesh Actors by Hierarchical LOD System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * This is essentially just StaticMeshActor that you can't move or edit, but it contains multiple actors reference</t>
+  </si>
+  <si>
+    <t>UCLASS(notplaceable, hidecategories = (Object, Collision, Display, Input, Blueprint, Transform, Physics))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class ENGINE_API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALODActor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : public AActor</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALODActor就是Aactor的一种子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同存在于Uworld的PersistentLevel-&gt;Actors中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1097,10 +1224,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA2DBD1-6E1C-46BA-B21D-E4832FA6A73C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -1281,4 +1408,181 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_lod_hlod.xlsx
+++ b/doc/ue_lod_hlod.xlsx
@@ -17,6 +17,7 @@
     <sheet name="hlod-proxymesh" sheetId="3" r:id="rId3"/>
     <sheet name="HLODProxy" sheetId="4" r:id="rId4"/>
     <sheet name="ALODActor" sheetId="5" r:id="rId5"/>
+    <sheet name="hlod" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <t>void MarkRelevant()</t>
   </si>
@@ -387,6 +388,54 @@
   </si>
   <si>
     <t>UCLASS()</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * LODActor is an instance of an autogenerated StaticMesh Actors by Hierarchical LOD System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * This is essentially just StaticMeshActor that you can't move or edit, but it contains multiple actors reference</t>
+  </si>
+  <si>
+    <t>UCLASS(notplaceable, hidecategories = (Object, Collision, Display, Input, Blueprint, Transform, Physics))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class ENGINE_API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALODActor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : public AActor</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALODActor就是Aactor的一种子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同存在于Uworld的PersistentLevel-&gt;Actors中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -417,51 +466,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * LODActor is an instance of an autogenerated StaticMesh Actors by Hierarchical LOD System</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * This is essentially just StaticMeshActor that you can't move or edit, but it contains multiple actors reference</t>
-  </si>
-  <si>
-    <t>UCLASS(notplaceable, hidecategories = (Object, Collision, Display, Input, Blueprint, Transform, Physics))</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">class ENGINE_API </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALODActor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : public AActor</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALODActor就是Aactor的一种子类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同存在于Uworld的PersistentLevel-&gt;Actors中</t>
+    <t>/** All the mesh proxies we contain */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FHLODProxyMesh&gt; ProxyMeshes;</t>
+  </si>
+  <si>
+    <t>TMap&lt;UHLODProxyDesc*, FHLODProxyMesh&gt; HLODActors;</t>
+  </si>
+  <si>
+    <t>非编辑器下成员:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// disable display of this component</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Category=LODActor, VisibleAnywhere)</t>
+  </si>
+  <si>
+    <t>UStaticMeshComponent* StaticMeshComponent;</t>
+  </si>
+  <si>
+    <t>/** Imposters to be rendered as instanced static meshes */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient)</t>
+  </si>
+  <si>
+    <t>TMap&lt;FHLODInstancingKey, UInstancedStaticMeshComponent*&gt; InstancedStaticMeshComponents;</t>
+  </si>
+  <si>
+    <t>/** The mesh proxy used to display this LOD */</t>
+  </si>
+  <si>
+    <t>UHLODProxy* Proxy;</t>
+  </si>
+  <si>
+    <t>/** The key used to validate this actor against the proxy */</t>
+  </si>
+  <si>
+    <t>/** what distance do you want this to show up instead of SubActors */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Category = LODActor, VisibleAnywhere)</t>
+  </si>
+  <si>
+    <t>float LODDrawDistance;</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>/** The hierarchy level of this actor; the first tier of HLOD is level 1, the second tier is level 2 and so on. */</t>
+  </si>
+  <si>
+    <t>int32 LODLevel;</t>
+  </si>
+  <si>
+    <t>TArray&lt;AActor*&gt; SubActors;</t>
+  </si>
+  <si>
+    <t>uint8 CachedNumHLODLevels;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化的时候已经生成了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化的时候生成，其内部的StatisMesh就是hlod目录下面的资源对应的mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化的时候生成，就是场景中对应的原物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其LOD怎么处理的？原物体和hlod新见物体怎么切换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只不过其加载的资源是hlod下面的staticmesh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1504,7 @@
   <dimension ref="B5:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,81 +1593,277 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B6"/>
+  <dimension ref="B4:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
